--- a/biology/Médecine/Muscle_rotateur/Muscle_rotateur.xlsx
+++ b/biology/Médecine/Muscle_rotateur/Muscle_rotateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles rotateurs (ou muscles sous-multifides selon l'ancienne dénomination)  font partie des muscles transversaires épineux.
 C'est un ensemble de petits muscles quadrilatères occupant la partie profonde des gouttières vertébrales.
@@ -517,7 +529,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils s’insèrent sur la partie supérieure et postérieure de l'apophyse transverse de chaque vertèbres.
 </t>
@@ -548,7 +562,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se terminent sur le bord inférieur de la lame de l’arc vertébral et sur le l'apophyse épineuse de la vertèbre immédiatement supérieure.
 </t>
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,7 +623,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont innervés par la branche postérieure des nerfs spinaux.
 </t>
@@ -636,7 +656,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils possèdent de nombreux récepteurs proprioceptifs et sont impliqués dans le contrôle postural.
 </t>
